--- a/data/IEEE_9/ieee18/ieee18_2040.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02C5E37-E313-4CC0-84F6-7D5FFE0DDF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E52BB-419F-417C-853E-5822DA26AB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1800" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="5520" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>9.4084300996616973E-4</v>
+        <v>4.7042150498308486E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21564,55 +21564,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.57210935357044879</v>
+        <v>0.28605467678522439</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>11.334143732284904</v>
+        <v>5.667071866142452</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>29.57405595684374</v>
+        <v>14.78702797842187</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>36.906967175642308</v>
+        <v>18.453483587821154</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>40.992683551248049</v>
+        <v>20.496341775624025</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>41.752884703300722</v>
+        <v>20.876442351650361</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>40.98619365456706</v>
+        <v>20.49309682728353</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>34.996403035567333</v>
+        <v>17.498201517783667</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>23.126593215689859</v>
+        <v>11.563296607844929</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>5.6500982902075521</v>
+        <v>2.825049145103776</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>4.4162018835146748E-2</v>
+        <v>2.2081009417573374E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.8017737953735028E-3</v>
+        <v>1.9008868976867514E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.9089329797933618E-3</v>
+        <v>1.4544664898966809E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>9.4084300996616973E-4</v>
+        <v>4.7042150498308486E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21665,55 +21665,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.57210935357044879</v>
+        <v>0.28605467678522439</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>11.334143732284904</v>
+        <v>5.667071866142452</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>29.57405595684374</v>
+        <v>14.78702797842187</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>36.906967175642308</v>
+        <v>18.453483587821154</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>40.992683551248049</v>
+        <v>20.496341775624025</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>41.752884703300722</v>
+        <v>20.876442351650361</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>40.98619365456706</v>
+        <v>20.49309682728353</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>34.996403035567333</v>
+        <v>17.498201517783667</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>23.126593215689859</v>
+        <v>11.563296607844929</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>5.6500982902075521</v>
+        <v>2.825049145103776</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>4.4162018835146748E-2</v>
+        <v>2.2081009417573374E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.8017737953735028E-3</v>
+        <v>1.9008868976867514E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.9089329797933618E-3</v>
+        <v>1.4544664898966809E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.6352459016393441E-3</v>
+        <v>8.1762295081967207E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22238,51 +22238,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.45840245901639337</v>
+        <v>0.22920122950819669</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>9.022426229508195</v>
+        <v>4.5112131147540975</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>21.463032786885247</v>
+        <v>10.731516393442623</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>28.88284918032787</v>
+        <v>14.441424590163935</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>35.423763934426226</v>
+        <v>17.711881967213113</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>42.068508196721311</v>
+        <v>21.034254098360655</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>35.107094262295078</v>
+        <v>17.553547131147539</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>25.796692622950818</v>
+        <v>12.898346311475409</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>12.374990163934426</v>
+        <v>6.1874950819672128</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>2.5853237704918026</v>
+        <v>1.2926618852459013</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.6524590163934424E-2</v>
+        <v>8.2622950819672119E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>7.2295081967213111E-3</v>
+        <v>3.6147540983606555E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.6352459016393441E-3</v>
+        <v>8.1762295081967207E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22339,51 +22339,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.45840245901639337</v>
+        <v>0.22920122950819669</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>9.022426229508195</v>
+        <v>4.5112131147540975</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>21.463032786885247</v>
+        <v>10.731516393442623</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>28.88284918032787</v>
+        <v>14.441424590163935</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>35.423763934426226</v>
+        <v>17.711881967213113</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>42.068508196721311</v>
+        <v>21.034254098360655</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>35.107094262295078</v>
+        <v>17.553547131147539</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>25.796692622950818</v>
+        <v>12.898346311475409</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>12.374990163934426</v>
+        <v>6.1874950819672128</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>2.5853237704918026</v>
+        <v>1.2926618852459013</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.6524590163934424E-2</v>
+        <v>8.2622950819672119E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>7.2295081967213111E-3</v>
+        <v>3.6147540983606555E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22912,47 +22912,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.49563401670463164</v>
+        <v>0.24781700835231582</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>10.822693621867881</v>
+        <v>5.4113468109339404</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>25.197276006074407</v>
+        <v>12.598638003037204</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>36.3370159453303</v>
+        <v>18.16850797266515</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>37.406881169324208</v>
+        <v>18.703440584662104</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>35.51842255125284</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>27.808523158693998</v>
+        <v>13.904261579346999</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>21.421275626423686</v>
+        <v>10.710637813211843</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>9.0893697798025812</v>
+        <v>4.5446848899012906</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.6046981776765374</v>
+        <v>0.80234908883826872</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.6044039483675021E-3</v>
+        <v>1.302201974183751E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -23013,47 +23013,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.49563401670463164</v>
+        <v>0.24781700835231582</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>10.822693621867881</v>
+        <v>5.4113468109339404</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>25.197276006074407</v>
+        <v>12.598638003037204</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>36.3370159453303</v>
+        <v>18.16850797266515</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>37.406881169324208</v>
+        <v>18.703440584662104</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>35.51842255125284</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>27.808523158693998</v>
+        <v>13.904261579346999</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>21.421275626423686</v>
+        <v>10.710637813211843</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>9.0893697798025812</v>
+        <v>4.5446848899012906</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.6046981776765374</v>
+        <v>0.80234908883826872</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.6044039483675021E-3</v>
+        <v>1.302201974183751E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24751,8 +24751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24809,7 +24809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.1854621925573741E-3</v>
+        <v>5.9273109627868705E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38739,55 +38739,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.6922523178202431</v>
+        <v>0.34612615891012155</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>14.394362540001826</v>
+        <v>7.1971812700009128</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>38.150532184328419</v>
+        <v>19.07526609216421</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>47.979057328335003</v>
+        <v>23.989528664167501</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>49.601147097010134</v>
+        <v>24.800573548505067</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>54.278750114290936</v>
+        <v>27.139375057145468</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>52.872189814391504</v>
+        <v>26.436094907195752</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>44.445431855170511</v>
+        <v>22.222715927585256</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>28.445709655298526</v>
+        <v>14.222854827649263</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>7.1191238456615142</v>
+        <v>3.5595619228307571</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>5.5644143732284906E-2</v>
+        <v>2.7822071866142453E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>4.7141995062631439E-3</v>
+        <v>2.357099753131572E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>3.519808905549968E-3</v>
+        <v>1.759904452774984E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38820,7 +38820,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.1854621925573741E-3</v>
+        <v>5.9273109627868705E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38840,55 +38840,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.6922523178202431</v>
+        <v>0.34612615891012155</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>14.394362540001826</v>
+        <v>7.1971812700009128</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>38.150532184328419</v>
+        <v>19.07526609216421</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>47.979057328335003</v>
+        <v>23.989528664167501</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>49.601147097010134</v>
+        <v>24.800573548505067</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>54.278750114290936</v>
+        <v>27.139375057145468</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>52.872189814391504</v>
+        <v>26.436094907195752</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>44.445431855170511</v>
+        <v>22.222715927585256</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>28.445709655298526</v>
+        <v>14.222854827649263</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>7.1191238456615142</v>
+        <v>3.5595619228307571</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>5.5644143732284906E-2</v>
+        <v>2.7822071866142453E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>4.7141995062631439E-3</v>
+        <v>2.357099753131572E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>3.519808905549968E-3</v>
+        <v>1.759904452774984E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -39470,7 +39470,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>2.0767622950819673E-3</v>
+        <v>1.0383811475409837E-3</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39494,51 +39494,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.59592319672131144</v>
+        <v>0.29796159836065572</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>11.638929836065573</v>
+        <v>5.8194649180327866</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>27.68731229508197</v>
+        <v>13.843656147540985</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>36.681218459016392</v>
+        <v>18.340609229508196</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>46.050893114754096</v>
+        <v>23.025446557377048</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>54.689060655737698</v>
+        <v>27.344530327868849</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>45.639222540983603</v>
+        <v>22.819611270491801</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>31.471965000000001</v>
+        <v>15.7359825</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>15.716237508196722</v>
+        <v>7.8581187540983608</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>3.3092144262295076</v>
+        <v>1.6546072131147538</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.9994754098360649E-2</v>
+        <v>9.9973770491803247E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>8.8199999999999997E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>2.0767622950819673E-3</v>
+        <v>1.0383811475409837E-3</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39595,51 +39595,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.59592319672131144</v>
+        <v>0.29796159836065572</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>11.638929836065573</v>
+        <v>5.8194649180327866</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>27.68731229508197</v>
+        <v>13.843656147540985</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>36.681218459016392</v>
+        <v>18.340609229508196</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>46.050893114754096</v>
+        <v>23.025446557377048</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>54.689060655737698</v>
+        <v>27.344530327868849</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>45.639222540983603</v>
+        <v>22.819611270491801</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>31.471965000000001</v>
+        <v>15.7359825</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>15.716237508196722</v>
+        <v>7.8581187540983608</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>3.3092144262295076</v>
+        <v>1.6546072131147538</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.9994754098360649E-2</v>
+        <v>9.9973770491803247E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>8.8199999999999997E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -40168,47 +40168,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.61458618071374327</v>
+        <v>0.30729309035687163</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>13.311913154897493</v>
+        <v>6.6559565774487464</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>31.244622247532263</v>
+        <v>15.622311123766131</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>46.148010250569477</v>
+        <v>23.074005125284739</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>48.254876708428228</v>
+        <v>24.127438354214114</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>42.622107061503407</v>
+        <v>21.311053530751703</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>34.20448348519362</v>
+        <v>17.10224174259681</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>27.419232801822321</v>
+        <v>13.709616400911161</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>11.72528701594533</v>
+        <v>5.8626435079726651</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>2.0700606492027331</v>
+        <v>1.0350303246013666</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>3.3857251328777527E-3</v>
+        <v>1.6928625664388763E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40269,47 +40269,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.61458618071374327</v>
+        <v>0.30729309035687163</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>13.311913154897493</v>
+        <v>6.6559565774487464</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>31.244622247532263</v>
+        <v>15.622311123766131</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>46.148010250569477</v>
+        <v>23.074005125284739</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>48.254876708428228</v>
+        <v>24.127438354214114</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>42.622107061503407</v>
+        <v>21.311053530751703</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>34.20448348519362</v>
+        <v>17.10224174259681</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>27.419232801822321</v>
+        <v>13.709616400911161</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>11.72528701594533</v>
+        <v>5.8626435079726651</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>2.0700606492027331</v>
+        <v>1.0350303246013666</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>3.3857251328777527E-3</v>
+        <v>1.6928625664388763E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -42561,8 +42561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90792FFD-F8B0-4F11-BB33-84C7B9CBA7C9}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
